--- a/Info/I2C/Initialization_of_MGC3130.xlsx
+++ b/Info/I2C/Initialization_of_MGC3130.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sputnik\Studium\6. Semester\Projekt\Notizen\Initialisieren\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sputnik\Studium\6. Semester\Projekt\Notizen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -202,7 +202,57 @@
         </r>
       </text>
     </comment>
-    <comment ref="I38" authorId="0" shapeId="0">
+    <comment ref="I40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sputnik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Acknowledge to Message-ID 0xA2
+(SET_RUNTIME_PARAMETER)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K42" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sputnik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If ErrorCode byte0 is 0x00, the requested setting was set.
+Else =&gt; ERROR</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L38" authorId="0" shapeId="0">
+    <comment ref="L64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I41" authorId="0" shapeId="0">
+    <comment ref="I67" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K41" authorId="0" shapeId="0">
+    <comment ref="K67" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L41" authorId="0" shapeId="0">
+    <comment ref="L67" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="71">
   <si>
     <t>MsgSize</t>
   </si>
@@ -523,6 +573,25 @@
   </si>
   <si>
     <t>Message from MGC3130 to Master</t>
+  </si>
+  <si>
+    <t>After receiving a message of the type SET_RUNTIME_PARAMETER, 
+the MGC3130 responds with a message SYSTEM_STATUS to indicate if the requested Runtimer-Parameter was set or not.</t>
+  </si>
+  <si>
+    <t>0x15</t>
+  </si>
+  <si>
+    <t>MsgID</t>
+  </si>
+  <si>
+    <t>MaxCMDSize</t>
+  </si>
+  <si>
+    <t>ErrorCode</t>
+  </si>
+  <si>
+    <t>Response to:</t>
   </si>
 </sst>
 </file>
@@ -921,21 +990,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -952,31 +1012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -990,25 +1026,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1020,33 +1038,117 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1120,13 +1222,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>268060</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>176356</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1158,6 +1260,56 @@
         <a:xfrm>
           <a:off x="2779059" y="4639236"/>
           <a:ext cx="7047619" cy="1095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10965</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>629375</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD8867C-574F-4FA8-B4C0-CBB74CC4B645}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2745200" y="4639234"/>
+          <a:ext cx="6680793" cy="1019735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1466,17 +1618,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U42"/>
+  <dimension ref="B2:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1485,7 +1637,7 @@
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="25" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1501,84 +1653,84 @@
       <c r="J11" s="1"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="4"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="49"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42" t="s">
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
     </row>
     <row r="15" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="20" t="s">
+      <c r="J15" s="46"/>
+      <c r="K15" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="36" t="s">
+      <c r="L15" s="68"/>
+      <c r="M15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="18" t="s">
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="12" t="s">
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1586,629 +1738,1129 @@
       <c r="C16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="27" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="29" t="s">
+      <c r="M16" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="N16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="O16" s="33" t="s">
+      <c r="O16" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="P16" s="14" t="s">
+      <c r="P16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q16" s="29" t="s">
+      <c r="Q16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="16" t="s">
+      <c r="R16" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="S16" s="33" t="s">
+      <c r="S16" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="T16" s="14" t="s">
+      <c r="T16" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="U16" s="5"/>
+      <c r="U16" s="4"/>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D17" s="9">
+      <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="11" t="s">
+      <c r="F17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="32" t="s">
+      <c r="J17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="21" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="30" t="s">
+      <c r="M17" s="19" t="s">
         <v>12</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O17" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="30" t="s">
+      <c r="O17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="19" t="s">
         <v>16</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S17" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="T17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U17" s="5" t="s">
+      <c r="S17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D18" s="9">
+      <c r="D18" s="6">
         <v>2</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="11" t="s">
+      <c r="F18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="32" t="s">
+      <c r="J18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="21" t="s">
         <v>12</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="30" t="s">
+      <c r="M18" s="19" t="s">
         <v>12</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="30" t="s">
+      <c r="O18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="19" t="s">
         <v>18</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S18" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="T18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U18" s="5" t="s">
+      <c r="S18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U18" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D19" s="9">
+      <c r="D19" s="6">
         <v>3</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="11" t="s">
+      <c r="F19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="32" t="s">
+      <c r="J19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="21" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="30" t="s">
+      <c r="M19" s="19" t="s">
         <v>12</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O19" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="30" t="s">
+      <c r="O19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="19" t="s">
         <v>10</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S19" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="T19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U19" s="5" t="s">
+      <c r="S19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U19" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D20" s="9">
+      <c r="D20" s="6">
         <v>4</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="11" t="s">
+      <c r="F20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="32" t="s">
+      <c r="J20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="21" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M20" s="30" t="s">
+      <c r="M20" s="19" t="s">
         <v>12</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="30" t="s">
+      <c r="O20" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="19" t="s">
         <v>45</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S20" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="T20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U20" s="5" t="s">
+      <c r="S20" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U20" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D21" s="9">
+      <c r="D21" s="6">
         <v>5</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="11" t="s">
+      <c r="F21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="I21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="32" t="s">
+      <c r="J21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="21" t="s">
         <v>12</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M21" s="30" t="s">
+      <c r="M21" s="19" t="s">
         <v>9</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O21" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="P21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="30" t="s">
+      <c r="O21" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="19" t="s">
         <v>23</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S21" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="T21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U21" s="5" t="s">
+      <c r="S21" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U21" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D22" s="9">
+      <c r="D22" s="6">
         <v>6</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="11" t="s">
+      <c r="F22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="I22" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="J22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="32" t="s">
+      <c r="J22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="21" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M22" s="30" t="s">
+      <c r="M22" s="19" t="s">
         <v>9</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O22" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="30" t="s">
+      <c r="O22" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="19" t="s">
         <v>23</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S22" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="T22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U22" s="5" t="s">
+      <c r="S22" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U22" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D32" s="39" t="s">
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D33" s="25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D34" s="1" t="s">
+    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D35" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="E38" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="49"/>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="E39" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+    </row>
+    <row r="40" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="J40" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="K40" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="L40" s="40"/>
+      <c r="M40" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M41" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O41" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="P41" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q41" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="R41" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S41" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="T41" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="U41" s="4"/>
+    </row>
+    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O42" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q42" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S42" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="T42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D43" s="6">
+        <v>2</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M43" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O43" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q43" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S43" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="T43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D44" s="6">
+        <v>3</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M44" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O44" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q44" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S44" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="T44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D45" s="6">
+        <v>4</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M45" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O45" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q45" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S45" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="T45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D46" s="6">
+        <v>5</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K46" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O46" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q46" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S46" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="T46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U46" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D47" s="6">
+        <v>6</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O47" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q47" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S47" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="T47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D58" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="4:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="4:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D60" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="E36" s="25" t="s">
+    <row r="62" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E62" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="59"/>
-    </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="E37" s="56" t="s">
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="55"/>
+    </row>
+    <row r="63" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E63" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="54" t="s">
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="55"/>
-    </row>
-    <row r="38" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="35" t="s">
+      <c r="J63" s="65"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
+      <c r="N63" s="65"/>
+      <c r="O63" s="65"/>
+      <c r="P63" s="65"/>
+      <c r="Q63" s="65"/>
+      <c r="R63" s="66"/>
+    </row>
+    <row r="64" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F64" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G38" s="35" t="s">
+      <c r="G64" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="17" t="s">
+      <c r="H64" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="50" t="s">
+      <c r="I64" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="J38" s="51"/>
-      <c r="K38" s="10" t="s">
+      <c r="J64" s="61"/>
+      <c r="K64" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L38" s="52" t="s">
+      <c r="L64" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="M38" s="6" t="s">
+      <c r="M64" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="N38" s="7"/>
-      <c r="O38" s="50" t="s">
+      <c r="N64" s="63"/>
+      <c r="O64" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="6" t="s">
+      <c r="P64" s="61"/>
+      <c r="Q64" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="R38" s="7"/>
-    </row>
-    <row r="39" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="E39" s="47" t="s">
+      <c r="R64" s="63"/>
+    </row>
+    <row r="65" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="E65" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F65" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="47" t="s">
+      <c r="G65" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="43" t="s">
+      <c r="H65" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="I39" s="48" t="s">
+      <c r="I65" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="J39" s="23" t="s">
+      <c r="J65" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="K39" s="49" t="s">
+      <c r="K65" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="L65" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M39" s="48" t="s">
+      <c r="M65" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="N39" s="23" t="s">
+      <c r="N65" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="O39" s="48" t="s">
+      <c r="O65" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="P39" s="23" t="s">
+      <c r="P65" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Q39" s="48" t="s">
+      <c r="Q65" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="R39" s="23" t="s">
+      <c r="R65" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C40" s="58" t="s">
+    <row r="66" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C66" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="60"/>
-      <c r="E40" s="28" t="s">
+      <c r="D66" s="57"/>
+      <c r="E66" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F66" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="28" t="s">
+      <c r="G66" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H66" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I40" s="45" t="s">
+      <c r="I66" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="J66" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K40" s="28" t="s">
+      <c r="K66" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L40" s="11" t="s">
+      <c r="L66" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M40" s="45" t="s">
+      <c r="M66" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="N40" s="8" t="s">
+      <c r="N66" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O40" s="45" t="s">
+      <c r="O66" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="P40" s="8" t="s">
+      <c r="P66" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Q40" s="45" t="s">
+      <c r="Q66" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="R40" s="8" t="s">
+      <c r="R66" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="E41" s="28" t="s">
+    <row r="67" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="E67" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F41" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="44" t="s">
+      <c r="F67" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="I41" s="30" t="s">
+      <c r="I67" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J41" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="K41" s="28" t="s">
+      <c r="J67" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K67" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="L41" s="44" t="s">
+      <c r="L67" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M41" s="30" t="s">
+      <c r="M67" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="N41" s="46" t="s">
+      <c r="N67" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="O41" s="30" t="s">
+      <c r="O67" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="P41" s="46" t="s">
+      <c r="P67" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="Q41" s="30" t="s">
+      <c r="Q67" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="R41" s="46" t="s">
+      <c r="R67" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="I42" s="53"/>
+    <row r="68" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="I68" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="E36:R36"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="I37:R37"/>
+  <mergeCells count="22">
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M15:P15"/>
     <mergeCell ref="Q15:T15"/>
@@ -2216,6 +2868,21 @@
     <mergeCell ref="E13:T13"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="I14:T14"/>
+    <mergeCell ref="D35:N36"/>
+    <mergeCell ref="E62:R62"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="I63:R63"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="E38:T38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I39:T39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
